--- a/MHSP/data/Supply_info.xlsx
+++ b/MHSP/data/Supply_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\MHSP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long-Term_MHSP\Long_Term_Housing_Planning\MHSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E6A5E8-FFCF-4F45-9FBF-86C4DDF83D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED80DDFF-AB37-47C8-BCE0-79A7205845EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warehouse_FEMA_4" sheetId="1" r:id="rId1"/>
@@ -932,7 +932,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -963,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>300</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>

--- a/MHSP/data/Supply_info.xlsx
+++ b/MHSP/data/Supply_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long-Term_MHSP\Long_Term_Housing_Planning\MHSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED80DDFF-AB37-47C8-BCE0-79A7205845EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A89F2-C383-443C-8DD8-CCEF9ACA4AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -963,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
